--- a/campaign_data.xlsx
+++ b/campaign_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiananstis/PycharmProjects/Contract generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12142AC-9FE4-8C49-A5F7-F45E4F54AAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0A853-78E3-1C44-A197-7F59ACD7A449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
   <si>
     <t>Planetary assault</t>
   </si>
@@ -118,12 +118,15 @@
   <si>
     <t>Pitched Battle</t>
   </si>
+  <si>
+    <t>OpFor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,6 +144,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,12 +176,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -395,7 +408,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1375,14 +1388,30 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1403,14 +1432,30 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1431,14 +1476,30 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.9</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1459,14 +1520,26 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.2</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1492,7 +1565,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="3">
+        <v>1.3</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
